--- a/strings.xlsx
+++ b/strings.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AO$94</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3749" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4508" uniqueCount="179">
   <si>
     <t>0----------------------------</t>
   </si>
@@ -541,12 +542,48 @@
   <si>
     <t>REV INPUT I/O</t>
   </si>
+  <si>
+    <t>HGCHORUS</t>
+  </si>
+  <si>
+    <t>HGFLANGE</t>
+  </si>
+  <si>
+    <t>HGTREMOLO</t>
+  </si>
+  <si>
+    <t>HGPITCH SHIFT</t>
+  </si>
+  <si>
+    <t>HGWAH-WAH</t>
+  </si>
+  <si>
+    <t>HGPHASER</t>
+  </si>
+  <si>
+    <t>LGCHORUS</t>
+  </si>
+  <si>
+    <t>LGFLANGE</t>
+  </si>
+  <si>
+    <t>LGTREMOLO</t>
+  </si>
+  <si>
+    <t>LGPITCH SHIFT</t>
+  </si>
+  <si>
+    <t>LGWAH-WAH</t>
+  </si>
+  <si>
+    <t>LGPHASER</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,6 +594,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -588,9 +633,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -9677,13 +9723,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R65" sqref="R3:R65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="18" width="9.140625" style="1"/>
+    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="12" style="1" customWidth="1"/>
+    <col min="10" max="18" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -9705,22 +9753,22 @@
       <c r="F2" t="s">
         <v>134</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>140</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -9761,22 +9809,22 @@
       <c r="F3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -9817,22 +9865,22 @@
       <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -9873,22 +9921,22 @@
       <c r="F5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -9929,22 +9977,22 @@
       <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -9985,22 +10033,22 @@
       <c r="F7" t="s">
         <v>4</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -10041,22 +10089,22 @@
       <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -10097,22 +10145,22 @@
       <c r="F9" t="s">
         <v>6</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -10153,22 +10201,22 @@
       <c r="F10" t="s">
         <v>7</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -10209,22 +10257,22 @@
       <c r="F11" t="s">
         <v>8</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -10265,22 +10313,22 @@
       <c r="F12" t="s">
         <v>10</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M12" s="1" t="s">
@@ -10321,22 +10369,22 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -10377,22 +10425,22 @@
       <c r="F14" t="s">
         <v>81</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="1" t="s">
         <v>81</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -10433,22 +10481,22 @@
       <c r="F15" t="s">
         <v>82</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -10489,22 +10537,22 @@
       <c r="F16" t="s">
         <v>115</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="1" t="s">
         <v>115</v>
       </c>
       <c r="M16" s="1" t="s">
@@ -10545,22 +10593,22 @@
       <c r="F17" t="s">
         <v>116</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M17" s="1" t="s">
@@ -10601,22 +10649,22 @@
       <c r="F18" t="s">
         <v>117</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M18" s="1" t="s">
@@ -10657,22 +10705,22 @@
       <c r="F19" t="s">
         <v>118</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="1" t="s">
         <v>118</v>
       </c>
       <c r="M19" s="1" t="s">
@@ -10713,22 +10761,22 @@
       <c r="F20" t="s">
         <v>119</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="1" t="s">
         <v>119</v>
       </c>
       <c r="M20" s="1" t="s">
@@ -10769,22 +10817,22 @@
       <c r="F21" t="s">
         <v>21</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M21" s="1" t="s">
@@ -10825,22 +10873,22 @@
       <c r="F22" t="s">
         <v>83</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="1" t="s">
         <v>83</v>
       </c>
       <c r="M22" s="1" t="s">
@@ -10881,22 +10929,22 @@
       <c r="F23" t="s">
         <v>84</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="1" t="s">
         <v>84</v>
       </c>
       <c r="M23" s="1" t="s">
@@ -10937,22 +10985,22 @@
       <c r="F24" t="s">
         <v>85</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="1" t="s">
         <v>85</v>
       </c>
       <c r="M24" s="1" t="s">
@@ -10993,22 +11041,22 @@
       <c r="F25" t="s">
         <v>86</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M25" s="1" t="s">
@@ -11049,22 +11097,22 @@
       <c r="F26" t="s">
         <v>87</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="1" t="s">
         <v>87</v>
       </c>
       <c r="M26" s="1" t="s">
@@ -11105,22 +11153,22 @@
       <c r="F27" t="s">
         <v>88</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="1" t="s">
         <v>88</v>
       </c>
       <c r="M27" s="1" t="s">
@@ -11161,22 +11209,22 @@
       <c r="F28" t="s">
         <v>89</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="1" t="s">
         <v>89</v>
       </c>
       <c r="M28" s="1" t="s">
@@ -11217,22 +11265,22 @@
       <c r="F29" t="s">
         <v>90</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M29" s="1" t="s">
@@ -11273,22 +11321,22 @@
       <c r="F30" t="s">
         <v>91</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="1" t="s">
         <v>91</v>
       </c>
       <c r="M30" s="1" t="s">
@@ -11329,22 +11377,22 @@
       <c r="F31" t="s">
         <v>92</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M31" s="1" t="s">
@@ -11385,22 +11433,22 @@
       <c r="F32" t="s">
         <v>93</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="1" t="s">
         <v>93</v>
       </c>
       <c r="M32" s="1" t="s">
@@ -11441,22 +11489,22 @@
       <c r="F33" t="s">
         <v>94</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="1" t="s">
         <v>94</v>
       </c>
       <c r="M33" s="1" t="s">
@@ -11497,22 +11545,22 @@
       <c r="F34" t="s">
         <v>95</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="1" t="s">
         <v>95</v>
       </c>
       <c r="M34" s="1" t="s">
@@ -11553,22 +11601,22 @@
       <c r="F35" t="s">
         <v>9</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="M35" s="1" t="s">
@@ -11609,22 +11657,22 @@
       <c r="F36" t="s">
         <v>29</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M36" s="1" t="s">
@@ -11665,22 +11713,22 @@
       <c r="F37" t="s">
         <v>30</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M37" s="1" t="s">
@@ -11721,22 +11769,22 @@
       <c r="F38" t="s">
         <v>31</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="1" t="s">
         <v>31</v>
       </c>
       <c r="M38" s="1" t="s">
@@ -11777,22 +11825,22 @@
       <c r="F39" t="s">
         <v>129</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M39" s="1" t="s">
@@ -11833,22 +11881,22 @@
       <c r="F40" t="s">
         <v>26</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="1" t="s">
         <v>35</v>
       </c>
       <c r="M40" s="1" t="s">
@@ -11889,22 +11937,22 @@
       <c r="F41" t="s">
         <v>27</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="1" t="s">
         <v>36</v>
       </c>
       <c r="M41" s="1" t="s">
@@ -11945,22 +11993,22 @@
       <c r="F42" t="s">
         <v>28</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M42" s="1" t="s">
@@ -12001,22 +12049,22 @@
       <c r="F43" t="s">
         <v>34</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M43" s="1" t="s">
@@ -12057,22 +12105,22 @@
       <c r="F44" t="s">
         <v>35</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="1" t="s">
         <v>61</v>
       </c>
       <c r="M44" s="1" t="s">
@@ -12113,22 +12161,22 @@
       <c r="F45" t="s">
         <v>36</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="1" t="s">
         <v>62</v>
       </c>
       <c r="M45" s="1" t="s">
@@ -12169,22 +12217,22 @@
       <c r="F46" t="s">
         <v>37</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="1" t="s">
         <v>65</v>
       </c>
       <c r="M46" s="1" t="s">
@@ -12225,22 +12273,22 @@
       <c r="F47" t="s">
         <v>38</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="1" t="s">
         <v>66</v>
       </c>
       <c r="M47" s="1" t="s">
@@ -12281,22 +12329,22 @@
       <c r="F48" t="s">
         <v>61</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" s="1" t="s">
         <v>63</v>
       </c>
       <c r="M48" s="1" t="s">
@@ -12337,22 +12385,22 @@
       <c r="F49" t="s">
         <v>62</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" s="1" t="s">
         <v>67</v>
       </c>
       <c r="M49" s="1" t="s">
@@ -12393,22 +12441,22 @@
       <c r="F50" t="s">
         <v>65</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" s="1" t="s">
         <v>41</v>
       </c>
       <c r="M50" s="1" t="s">
@@ -12449,22 +12497,22 @@
       <c r="F51" t="s">
         <v>66</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" s="1" t="s">
         <v>69</v>
       </c>
       <c r="M51" s="1" t="s">
@@ -12505,22 +12553,22 @@
       <c r="F52" t="s">
         <v>63</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L52" s="1" t="s">
         <v>70</v>
       </c>
       <c r="M52" s="1" t="s">
@@ -12561,22 +12609,22 @@
       <c r="F53" t="s">
         <v>67</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="1" t="s">
         <v>71</v>
       </c>
       <c r="M53" s="1" t="s">
@@ -12617,22 +12665,22 @@
       <c r="F54" t="s">
         <v>41</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="M54" s="1" t="s">
@@ -12673,22 +12721,22 @@
       <c r="F55" t="s">
         <v>69</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L55" s="1" t="s">
         <v>73</v>
       </c>
       <c r="M55" s="1" t="s">
@@ -12729,22 +12777,22 @@
       <c r="F56" t="s">
         <v>70</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" s="1" t="s">
         <v>74</v>
       </c>
       <c r="M56" s="1" t="s">
@@ -12785,22 +12833,22 @@
       <c r="F57" t="s">
         <v>71</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L57" s="1" t="s">
         <v>75</v>
       </c>
       <c r="M57" s="1" t="s">
@@ -12841,22 +12889,22 @@
       <c r="F58" t="s">
         <v>46</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L58" s="1" t="s">
         <v>76</v>
       </c>
       <c r="M58" s="1" t="s">
@@ -12897,19 +12945,19 @@
       <c r="F59" t="s">
         <v>73</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L59" s="1" t="s">
         <v>77</v>
       </c>
       <c r="M59" s="1" t="s">
@@ -12950,19 +12998,19 @@
       <c r="F60" t="s">
         <v>74</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L60" t="s">
+      <c r="L60" s="1" t="s">
         <v>78</v>
       </c>
       <c r="M60" s="1" t="s">
@@ -13003,19 +13051,19 @@
       <c r="F61" t="s">
         <v>75</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L61" s="1" t="s">
         <v>79</v>
       </c>
       <c r="M61" s="1" t="s">
@@ -13056,13 +13104,13 @@
       <c r="F62" t="s">
         <v>76</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" s="1" t="s">
         <v>79</v>
       </c>
       <c r="M62" s="1" t="s">
@@ -13103,10 +13151,10 @@
       <c r="F63" t="s">
         <v>77</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="1" t="s">
         <v>76</v>
       </c>
       <c r="M63" s="1" t="s">
@@ -13141,10 +13189,10 @@
       <c r="F64" t="s">
         <v>78</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="1" t="s">
         <v>77</v>
       </c>
       <c r="M64" s="1" t="s">
@@ -13179,10 +13227,10 @@
       <c r="F65" t="s">
         <v>96</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="1" t="s">
         <v>78</v>
       </c>
       <c r="M65" s="1" t="s">
@@ -13217,10 +13265,10 @@
       <c r="F66" t="s">
         <v>79</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="1" t="s">
         <v>79</v>
       </c>
       <c r="M66" s="1" t="s">
@@ -13243,7 +13291,7 @@
       <c r="D67" t="s">
         <v>79</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="M67" s="1" t="s">
@@ -13285,4 +13333,5473 @@
   <autoFilter ref="A1:S69"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="12" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="2" t="str">
+        <f>A1</f>
+        <v>HGCHORUS</v>
+      </c>
+      <c r="O1" s="2" t="str">
+        <f t="shared" ref="O1:Y1" si="0">B1</f>
+        <v>HGFLANGE</v>
+      </c>
+      <c r="P1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>HGTREMOLO</v>
+      </c>
+      <c r="Q1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>HGPITCH SHIFT</v>
+      </c>
+      <c r="R1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>HGWAH-WAH</v>
+      </c>
+      <c r="S1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>HGPHASER</v>
+      </c>
+      <c r="T1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LGCHORUS</v>
+      </c>
+      <c r="U1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LGFLANGE</v>
+      </c>
+      <c r="V1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LGTREMOLO</v>
+      </c>
+      <c r="W1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LGPITCH SHIFT</v>
+      </c>
+      <c r="X1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LGWAH-WAH</v>
+      </c>
+      <c r="Y1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LGPHASER</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="str">
+        <f>""""&amp;A2&amp;""","</f>
+        <v>"OUTPUT",</v>
+      </c>
+      <c r="O2" t="str">
+        <f t="shared" ref="O2:Y17" si="1">""""&amp;B2&amp;""","</f>
+        <v>"OUTPUT",</v>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" si="1"/>
+        <v>"OUTPUT",</v>
+      </c>
+      <c r="Q2" t="str">
+        <f t="shared" si="1"/>
+        <v>"OUTPUT",</v>
+      </c>
+      <c r="R2" t="str">
+        <f t="shared" si="1"/>
+        <v>"OUTPUT",</v>
+      </c>
+      <c r="S2" t="str">
+        <f t="shared" si="1"/>
+        <v>"OUTPUT",</v>
+      </c>
+      <c r="T2" t="str">
+        <f t="shared" si="1"/>
+        <v>"OUTPUT",</v>
+      </c>
+      <c r="U2" t="str">
+        <f t="shared" si="1"/>
+        <v>"OUTPUT",</v>
+      </c>
+      <c r="V2" t="str">
+        <f t="shared" si="1"/>
+        <v>"OUTPUT",</v>
+      </c>
+      <c r="W2" t="str">
+        <f t="shared" si="1"/>
+        <v>"OUTPUT",</v>
+      </c>
+      <c r="X2" t="str">
+        <f t="shared" si="1"/>
+        <v>"OUTPUT",</v>
+      </c>
+      <c r="Y2" t="str">
+        <f t="shared" si="1"/>
+        <v>"OUTPUT",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N66" si="2">""""&amp;A3&amp;""","</f>
+        <v>"GLOBAL SPKR SIM",</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" si="1"/>
+        <v>"GLOBAL SPKR SIM",</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="1"/>
+        <v>"GLOBAL SPKR SIM",</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" si="1"/>
+        <v>"GLOBAL SPKR SIM",</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" si="1"/>
+        <v>"GLOBAL SPKR SIM",</v>
+      </c>
+      <c r="S3" t="str">
+        <f t="shared" si="1"/>
+        <v>"GLOBAL SPKR SIM",</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" si="1"/>
+        <v>"GLOBAL SPKR SIM",</v>
+      </c>
+      <c r="U3" t="str">
+        <f t="shared" si="1"/>
+        <v>"GLOBAL SPKR SIM",</v>
+      </c>
+      <c r="V3" t="str">
+        <f t="shared" si="1"/>
+        <v>"GLOBAL SPKR SIM",</v>
+      </c>
+      <c r="W3" t="str">
+        <f t="shared" si="1"/>
+        <v>"GLOBAL SPKR SIM",</v>
+      </c>
+      <c r="X3" t="str">
+        <f t="shared" si="1"/>
+        <v>"GLOBAL SPKR SIM",</v>
+      </c>
+      <c r="Y3" t="str">
+        <f t="shared" si="1"/>
+        <v>"GLOBAL SPKR SIM",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="2"/>
+        <v>"HUSH OFFSET",</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="1"/>
+        <v>"HUSH OFFSET",</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="1"/>
+        <v>"HUSH OFFSET",</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="1"/>
+        <v>"HUSH OFFSET",</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="1"/>
+        <v>"HUSH OFFSET",</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" si="1"/>
+        <v>"HUSH OFFSET",</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" si="1"/>
+        <v>"HUSH OFFSET",</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" si="1"/>
+        <v>"HUSH OFFSET",</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" si="1"/>
+        <v>"HUSH OFFSET",</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" si="1"/>
+        <v>"HUSH OFFSET",</v>
+      </c>
+      <c r="X4" t="str">
+        <f t="shared" si="1"/>
+        <v>"HUSH OFFSET",</v>
+      </c>
+      <c r="Y4" t="str">
+        <f t="shared" si="1"/>
+        <v>"HUSH OFFSET",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="2"/>
+        <v>"MUTE",</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="1"/>
+        <v>"MUTE",</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="1"/>
+        <v>"MUTE",</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="1"/>
+        <v>"MUTE",</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="1"/>
+        <v>"MUTE",</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="1"/>
+        <v>"MUTE",</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="1"/>
+        <v>"MUTE",</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" si="1"/>
+        <v>"MUTE",</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" si="1"/>
+        <v>"MUTE",</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" si="1"/>
+        <v>"MUTE",</v>
+      </c>
+      <c r="X5" t="str">
+        <f t="shared" si="1"/>
+        <v>"MUTE",</v>
+      </c>
+      <c r="Y5" t="str">
+        <f t="shared" si="1"/>
+        <v>"MUTE",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="2"/>
+        <v>"VOLUME",</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="1"/>
+        <v>"VOLUME",</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="1"/>
+        <v>"VOLUME",</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="1"/>
+        <v>"VOLUME",</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="1"/>
+        <v>"VOLUME",</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="1"/>
+        <v>"VOLUME",</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="1"/>
+        <v>"VOLUME",</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="1"/>
+        <v>"VOLUME",</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="1"/>
+        <v>"VOLUME",</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="1"/>
+        <v>"VOLUME",</v>
+      </c>
+      <c r="X6" t="str">
+        <f t="shared" si="1"/>
+        <v>"VOLUME",</v>
+      </c>
+      <c r="Y6" t="str">
+        <f t="shared" si="1"/>
+        <v>"VOLUME",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="2"/>
+        <v>"LEFT OUT LVL",</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="1"/>
+        <v>"LEFT OUT LVL",</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="1"/>
+        <v>"LEFT OUT LVL",</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="1"/>
+        <v>"LEFT OUT LVL",</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="1"/>
+        <v>"LEFT OUT LVL",</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="1"/>
+        <v>"LEFT OUT LVL",</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="1"/>
+        <v>"LEFT OUT LVL",</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="1"/>
+        <v>"LEFT OUT LVL",</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="1"/>
+        <v>"LEFT OUT LVL",</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="1"/>
+        <v>"LEFT OUT LVL",</v>
+      </c>
+      <c r="X7" t="str">
+        <f t="shared" si="1"/>
+        <v>"LEFT OUT LVL",</v>
+      </c>
+      <c r="Y7" t="str">
+        <f t="shared" si="1"/>
+        <v>"LEFT OUT LVL",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="2"/>
+        <v>"RIGHT OUT LVL",</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="1"/>
+        <v>"RIGHT OUT LVL",</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="1"/>
+        <v>"RIGHT OUT LVL",</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="1"/>
+        <v>"RIGHT OUT LVL",</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="1"/>
+        <v>"RIGHT OUT LVL",</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="1"/>
+        <v>"RIGHT OUT LVL",</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="1"/>
+        <v>"RIGHT OUT LVL",</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="1"/>
+        <v>"RIGHT OUT LVL",</v>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="1"/>
+        <v>"RIGHT OUT LVL",</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="1"/>
+        <v>"RIGHT OUT LVL",</v>
+      </c>
+      <c r="X8" t="str">
+        <f t="shared" si="1"/>
+        <v>"RIGHT OUT LVL",</v>
+      </c>
+      <c r="Y8" t="str">
+        <f t="shared" si="1"/>
+        <v>"RIGHT OUT LVL",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="2"/>
+        <v>"MIX DIR",</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="1"/>
+        <v>"MIX DIR",</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="1"/>
+        <v>"MIX DIR",</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="1"/>
+        <v>"MIX DIR",</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="1"/>
+        <v>"MIX DIR",</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="1"/>
+        <v>"MIX DIR",</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="1"/>
+        <v>"MIX DIR",</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="1"/>
+        <v>"MIX DIR",</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="1"/>
+        <v>"MIX DIR",</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="1"/>
+        <v>"MIX DIR",</v>
+      </c>
+      <c r="X9" t="str">
+        <f t="shared" si="1"/>
+        <v>"MIX DIR",</v>
+      </c>
+      <c r="Y9" t="str">
+        <f t="shared" si="1"/>
+        <v>"MIX DIR",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="2"/>
+        <v>"DIRECT PAN",</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="1"/>
+        <v>"DIRECT PAN",</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="1"/>
+        <v>"DIRECT PAN",</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="1"/>
+        <v>"DIRECT PAN",</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="1"/>
+        <v>"DIRECT PAN",</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="1"/>
+        <v>"DIRECT PAN",</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="1"/>
+        <v>"DIRECT PAN",</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="1"/>
+        <v>"DIRECT PAN",</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="1"/>
+        <v>"DIRECT PAN",</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="1"/>
+        <v>"DIRECT PAN",</v>
+      </c>
+      <c r="X10" t="str">
+        <f t="shared" si="1"/>
+        <v>"DIRECT PAN",</v>
+      </c>
+      <c r="Y10" t="str">
+        <f t="shared" si="1"/>
+        <v>"DIRECT PAN",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="2"/>
+        <v>"DELAY LVL",</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="1"/>
+        <v>"DELAY LVL",</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="1"/>
+        <v>"DELAY LVL",</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="1"/>
+        <v>"DELAY LVL",</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="1"/>
+        <v>"DELAY LVL",</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="1"/>
+        <v>"DELAY LVL",</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="1"/>
+        <v>"DELAY LVL",</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="1"/>
+        <v>"DELAY LVL",</v>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="1"/>
+        <v>"DELAY LVL",</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="1"/>
+        <v>"DELAY LVL",</v>
+      </c>
+      <c r="X11" t="str">
+        <f t="shared" si="1"/>
+        <v>"DELAY LVL",</v>
+      </c>
+      <c r="Y11" t="str">
+        <f t="shared" si="1"/>
+        <v>"DELAY LVL",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="2"/>
+        <v>"REVERB LVL",</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="1"/>
+        <v>"REVERB LVL",</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="1"/>
+        <v>"REVERB LVL",</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="1"/>
+        <v>"REVERB LVL",</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="1"/>
+        <v>"REVERB LVL",</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="1"/>
+        <v>"REVERB LVL",</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="1"/>
+        <v>"REVERB LVL",</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="1"/>
+        <v>"REVERB LVL",</v>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="1"/>
+        <v>"REVERB LVL",</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="1"/>
+        <v>"REVERB LVL",</v>
+      </c>
+      <c r="X12" t="str">
+        <f t="shared" si="1"/>
+        <v>"REVERB LVL",</v>
+      </c>
+      <c r="Y12" t="str">
+        <f t="shared" si="1"/>
+        <v>"REVERB LVL",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="2"/>
+        <v>"GAIN",</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="1"/>
+        <v>"GAIN",</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="1"/>
+        <v>"GAIN",</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="1"/>
+        <v>"GAIN",</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="1"/>
+        <v>"GAIN",</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="1"/>
+        <v>"GAIN",</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="1"/>
+        <v>"GAIN",</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="1"/>
+        <v>"GAIN",</v>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="1"/>
+        <v>"GAIN",</v>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="1"/>
+        <v>"GAIN",</v>
+      </c>
+      <c r="X13" t="str">
+        <f t="shared" si="1"/>
+        <v>"GAIN",</v>
+      </c>
+      <c r="Y13" t="str">
+        <f t="shared" si="1"/>
+        <v>"GAIN",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" t="s">
+        <v>106</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="2"/>
+        <v>"VARIAC ADJUST",</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="1"/>
+        <v>"VARIAC ADJUST",</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="1"/>
+        <v>"VARIAC ADJUST",</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="1"/>
+        <v>"VARIAC ADJUST",</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="1"/>
+        <v>"VARIAC ADJUST",</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="1"/>
+        <v>"VARIAC ADJUST",</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="1"/>
+        <v>"DIST TYPE",</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="1"/>
+        <v>"DIST TYPE",</v>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="1"/>
+        <v>"DIST TYPE",</v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="1"/>
+        <v>"DIST TYPE",</v>
+      </c>
+      <c r="X14" t="str">
+        <f t="shared" si="1"/>
+        <v>"DIST TYPE",</v>
+      </c>
+      <c r="Y14" t="str">
+        <f t="shared" si="1"/>
+        <v>"DIST TYPE",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" t="s">
+        <v>115</v>
+      </c>
+      <c r="L15" t="s">
+        <v>115</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="2"/>
+        <v>"POST BASS LVL",</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST BASS LVL",</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST BASS LVL",</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST BASS LVL",</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST BASS LVL",</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST BASS LVL",</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST BASS LVL",</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST BASS LVL",</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST BASS LVL",</v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST BASS LVL",</v>
+      </c>
+      <c r="X15" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST BASS LVL",</v>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST BASS LVL",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" t="s">
+        <v>116</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="2"/>
+        <v>"POST MID LVL",</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST MID LVL",</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST MID LVL",</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST MID LVL",</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST MID LVL",</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST MID LVL",</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST MID LVL",</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST MID LVL",</v>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST MID LVL",</v>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST MID LVL",</v>
+      </c>
+      <c r="X16" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST MID LVL",</v>
+      </c>
+      <c r="Y16" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST MID LVL",</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" t="s">
+        <v>117</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="2"/>
+        <v>"POST TREBLE LVL",</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST TREBLE LVL",</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST TREBLE LVL",</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST TREBLE LVL",</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST TREBLE LVL",</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST TREBLE LVL",</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST TREBLE LVL",</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST TREBLE LVL",</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST TREBLE LVL",</v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST TREBLE LVL",</v>
+      </c>
+      <c r="X17" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST TREBLE LVL",</v>
+      </c>
+      <c r="Y17" t="str">
+        <f t="shared" si="1"/>
+        <v>"POST TREBLE LVL",</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" t="s">
+        <v>118</v>
+      </c>
+      <c r="J18" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" t="s">
+        <v>118</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="2"/>
+        <v>"POST PRESENCE LVL",</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" ref="O18:O68" si="3">""""&amp;B18&amp;""","</f>
+        <v>"POST PRESENCE LVL",</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" ref="P18:P68" si="4">""""&amp;C18&amp;""","</f>
+        <v>"POST PRESENCE LVL",</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" ref="Q18:Q68" si="5">""""&amp;D18&amp;""","</f>
+        <v>"POST PRESENCE LVL",</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" ref="R18:R68" si="6">""""&amp;E18&amp;""","</f>
+        <v>"POST PRESENCE LVL",</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" ref="S18:S68" si="7">""""&amp;F18&amp;""","</f>
+        <v>"POST PRESENCE LVL",</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" ref="T18:T68" si="8">""""&amp;G18&amp;""","</f>
+        <v>"POST PRESENCE LVL",</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" ref="U18:U68" si="9">""""&amp;H18&amp;""","</f>
+        <v>"POST PRESENCE LVL",</v>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" ref="V18:V68" si="10">""""&amp;I18&amp;""","</f>
+        <v>"POST PRESENCE LVL",</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" ref="W18:W68" si="11">""""&amp;J18&amp;""","</f>
+        <v>"POST PRESENCE LVL",</v>
+      </c>
+      <c r="X18" t="str">
+        <f t="shared" ref="X18:X68" si="12">""""&amp;K18&amp;""","</f>
+        <v>"POST PRESENCE LVL",</v>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" ref="Y18:Y68" si="13">""""&amp;L18&amp;""","</f>
+        <v>"POST PRESENCE LVL",</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" t="s">
+        <v>119</v>
+      </c>
+      <c r="J19" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" t="s">
+        <v>119</v>
+      </c>
+      <c r="L19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="2"/>
+        <v>"HUSH I/O",</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="3"/>
+        <v>"HUSH I/O",</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="4"/>
+        <v>"HUSH I/O",</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="5"/>
+        <v>"HUSH I/O",</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="6"/>
+        <v>"HUSH I/O",</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="7"/>
+        <v>"HUSH I/O",</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="8"/>
+        <v>"HUSH I/O",</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="9"/>
+        <v>"HUSH I/O",</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" si="10"/>
+        <v>"HUSH I/O",</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="11"/>
+        <v>"HUSH I/O",</v>
+      </c>
+      <c r="X19" t="str">
+        <f t="shared" si="12"/>
+        <v>"HUSH I/O",</v>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="13"/>
+        <v>"HUSH I/O",</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="2"/>
+        <v>"EXP THRESH",</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="3"/>
+        <v>"EXP THRESH",</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="4"/>
+        <v>"EXP THRESH",</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="5"/>
+        <v>"EXP THRESH",</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="6"/>
+        <v>"EXP THRESH",</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="7"/>
+        <v>"EXP THRESH",</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="8"/>
+        <v>"EXP THRESH",</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="9"/>
+        <v>"EXP THRESH",</v>
+      </c>
+      <c r="V20" t="str">
+        <f t="shared" si="10"/>
+        <v>"EXP THRESH",</v>
+      </c>
+      <c r="W20" t="str">
+        <f t="shared" si="11"/>
+        <v>"EXP THRESH",</v>
+      </c>
+      <c r="X20" t="str">
+        <f t="shared" si="12"/>
+        <v>"EXP THRESH",</v>
+      </c>
+      <c r="Y20" t="str">
+        <f t="shared" si="13"/>
+        <v>"EXP THRESH",</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" t="s">
+        <v>83</v>
+      </c>
+      <c r="L21" t="s">
+        <v>83</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="2"/>
+        <v>"PRE LF LVL",</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="3"/>
+        <v>"PRE LF LVL",</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="4"/>
+        <v>"PRE LF LVL",</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="5"/>
+        <v>"PRE LF LVL",</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="6"/>
+        <v>"PRE LF LVL",</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="7"/>
+        <v>"PRE LF LVL",</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="8"/>
+        <v>"PRE LF LVL",</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="9"/>
+        <v>"PRE LF LVL",</v>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" si="10"/>
+        <v>"PRE LF LVL",</v>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" si="11"/>
+        <v>"PRE LF LVL",</v>
+      </c>
+      <c r="X21" t="str">
+        <f t="shared" si="12"/>
+        <v>"PRE LF LVL",</v>
+      </c>
+      <c r="Y21" t="str">
+        <f t="shared" si="13"/>
+        <v>"PRE LF LVL",</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" t="s">
+        <v>84</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="2"/>
+        <v>"PRE LF FREQ",</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="3"/>
+        <v>"PRE LF FREQ",</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="4"/>
+        <v>"PRE LF FREQ",</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="5"/>
+        <v>"PRE LF FREQ",</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="6"/>
+        <v>"PRE LF FREQ",</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="7"/>
+        <v>"PRE LF FREQ",</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="8"/>
+        <v>"PRE LF FREQ",</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="9"/>
+        <v>"PRE LF FREQ",</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" si="10"/>
+        <v>"PRE LF FREQ",</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" si="11"/>
+        <v>"PRE LF FREQ",</v>
+      </c>
+      <c r="X22" t="str">
+        <f t="shared" si="12"/>
+        <v>"PRE LF FREQ",</v>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" si="13"/>
+        <v>"PRE LF FREQ",</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23" t="s">
+        <v>85</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="2"/>
+        <v>"PRE MID LVL",</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="3"/>
+        <v>"PRE MID LVL",</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="4"/>
+        <v>"PRE MID LVL",</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="5"/>
+        <v>"PRE MID LVL",</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="6"/>
+        <v>"PRE MID LVL",</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="7"/>
+        <v>"PRE MID LVL",</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="8"/>
+        <v>"PRE MID LVL",</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="9"/>
+        <v>"PRE MID LVL",</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="10"/>
+        <v>"PRE MID LVL",</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="11"/>
+        <v>"PRE MID LVL",</v>
+      </c>
+      <c r="X23" t="str">
+        <f t="shared" si="12"/>
+        <v>"PRE MID LVL",</v>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="13"/>
+        <v>"PRE MID LVL",</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" t="s">
+        <v>86</v>
+      </c>
+      <c r="L24" t="s">
+        <v>86</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="2"/>
+        <v>"PRE MID FREQ",</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="3"/>
+        <v>"PRE MID FREQ",</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="4"/>
+        <v>"PRE MID FREQ",</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="5"/>
+        <v>"PRE MID FREQ",</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="6"/>
+        <v>"PRE MID FREQ",</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="7"/>
+        <v>"PRE MID FREQ",</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="8"/>
+        <v>"PRE MID FREQ",</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="9"/>
+        <v>"PRE MID FREQ",</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="10"/>
+        <v>"PRE MID FREQ",</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="11"/>
+        <v>"PRE MID FREQ",</v>
+      </c>
+      <c r="X24" t="str">
+        <f t="shared" si="12"/>
+        <v>"PRE MID FREQ",</v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="13"/>
+        <v>"PRE MID FREQ",</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" t="s">
+        <v>87</v>
+      </c>
+      <c r="I25" t="s">
+        <v>87</v>
+      </c>
+      <c r="J25" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25" t="s">
+        <v>87</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="2"/>
+        <v>"PRE MID BW",</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="3"/>
+        <v>"PRE MID BW",</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="4"/>
+        <v>"PRE MID BW",</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="5"/>
+        <v>"PRE MID BW",</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="6"/>
+        <v>"PRE MID BW",</v>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" si="7"/>
+        <v>"PRE MID BW",</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="8"/>
+        <v>"PRE MID BW",</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="9"/>
+        <v>"PRE MID BW",</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="10"/>
+        <v>"PRE MID BW",</v>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="11"/>
+        <v>"PRE MID BW",</v>
+      </c>
+      <c r="X25" t="str">
+        <f t="shared" si="12"/>
+        <v>"PRE MID BW",</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" si="13"/>
+        <v>"PRE MID BW",</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" t="s">
+        <v>88</v>
+      </c>
+      <c r="K26" t="s">
+        <v>88</v>
+      </c>
+      <c r="L26" t="s">
+        <v>88</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="2"/>
+        <v>"POST BASS FREQ",</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="3"/>
+        <v>"POST BASS FREQ",</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="4"/>
+        <v>"POST BASS FREQ",</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="5"/>
+        <v>"POST BASS FREQ",</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="6"/>
+        <v>"POST BASS FREQ",</v>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" si="7"/>
+        <v>"POST BASS FREQ",</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="8"/>
+        <v>"POST BASS FREQ",</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="9"/>
+        <v>"POST BASS FREQ",</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="10"/>
+        <v>"POST BASS FREQ",</v>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="11"/>
+        <v>"POST BASS FREQ",</v>
+      </c>
+      <c r="X26" t="str">
+        <f t="shared" si="12"/>
+        <v>"POST BASS FREQ",</v>
+      </c>
+      <c r="Y26" t="str">
+        <f t="shared" si="13"/>
+        <v>"POST BASS FREQ",</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" t="s">
+        <v>89</v>
+      </c>
+      <c r="J27" t="s">
+        <v>89</v>
+      </c>
+      <c r="K27" t="s">
+        <v>89</v>
+      </c>
+      <c r="L27" t="s">
+        <v>89</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="2"/>
+        <v>"POST BASS BW",</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="3"/>
+        <v>"POST BASS BW",</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="4"/>
+        <v>"POST BASS BW",</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="5"/>
+        <v>"POST BASS BW",</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" si="6"/>
+        <v>"POST BASS BW",</v>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" si="7"/>
+        <v>"POST BASS BW",</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="8"/>
+        <v>"POST BASS BW",</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="9"/>
+        <v>"POST BASS BW",</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="10"/>
+        <v>"POST BASS BW",</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="11"/>
+        <v>"POST BASS BW",</v>
+      </c>
+      <c r="X27" t="str">
+        <f t="shared" si="12"/>
+        <v>"POST BASS BW",</v>
+      </c>
+      <c r="Y27" t="str">
+        <f t="shared" si="13"/>
+        <v>"POST BASS BW",</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" t="s">
+        <v>90</v>
+      </c>
+      <c r="J28" t="s">
+        <v>90</v>
+      </c>
+      <c r="K28" t="s">
+        <v>90</v>
+      </c>
+      <c r="L28" t="s">
+        <v>90</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="2"/>
+        <v>"POST MID FREQ",</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="3"/>
+        <v>"POST MID FREQ",</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="4"/>
+        <v>"POST MID FREQ",</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="5"/>
+        <v>"POST MID FREQ",</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="6"/>
+        <v>"POST MID FREQ",</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="7"/>
+        <v>"POST MID FREQ",</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="8"/>
+        <v>"POST MID FREQ",</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="9"/>
+        <v>"POST MID FREQ",</v>
+      </c>
+      <c r="V28" t="str">
+        <f t="shared" si="10"/>
+        <v>"POST MID FREQ",</v>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="11"/>
+        <v>"POST MID FREQ",</v>
+      </c>
+      <c r="X28" t="str">
+        <f t="shared" si="12"/>
+        <v>"POST MID FREQ",</v>
+      </c>
+      <c r="Y28" t="str">
+        <f t="shared" si="13"/>
+        <v>"POST MID FREQ",</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" t="s">
+        <v>91</v>
+      </c>
+      <c r="K29" t="s">
+        <v>91</v>
+      </c>
+      <c r="L29" t="s">
+        <v>91</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="2"/>
+        <v>"POST MID BW",</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="3"/>
+        <v>"POST MID BW",</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="4"/>
+        <v>"POST MID BW",</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="5"/>
+        <v>"POST MID BW",</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" si="6"/>
+        <v>"POST MID BW",</v>
+      </c>
+      <c r="S29" t="str">
+        <f t="shared" si="7"/>
+        <v>"POST MID BW",</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="8"/>
+        <v>"POST MID BW",</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="9"/>
+        <v>"POST MID BW",</v>
+      </c>
+      <c r="V29" t="str">
+        <f t="shared" si="10"/>
+        <v>"POST MID BW",</v>
+      </c>
+      <c r="W29" t="str">
+        <f t="shared" si="11"/>
+        <v>"POST MID BW",</v>
+      </c>
+      <c r="X29" t="str">
+        <f t="shared" si="12"/>
+        <v>"POST MID BW",</v>
+      </c>
+      <c r="Y29" t="str">
+        <f t="shared" si="13"/>
+        <v>"POST MID BW",</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30" t="s">
+        <v>92</v>
+      </c>
+      <c r="J30" t="s">
+        <v>92</v>
+      </c>
+      <c r="K30" t="s">
+        <v>92</v>
+      </c>
+      <c r="L30" t="s">
+        <v>92</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="2"/>
+        <v>"POST TREBLE FREQ",</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="3"/>
+        <v>"POST TREBLE FREQ",</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="4"/>
+        <v>"POST TREBLE FREQ",</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="5"/>
+        <v>"POST TREBLE FREQ",</v>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" si="6"/>
+        <v>"POST TREBLE FREQ",</v>
+      </c>
+      <c r="S30" t="str">
+        <f t="shared" si="7"/>
+        <v>"POST TREBLE FREQ",</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="8"/>
+        <v>"POST TREBLE FREQ",</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="9"/>
+        <v>"POST TREBLE FREQ",</v>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" si="10"/>
+        <v>"POST TREBLE FREQ",</v>
+      </c>
+      <c r="W30" t="str">
+        <f t="shared" si="11"/>
+        <v>"POST TREBLE FREQ",</v>
+      </c>
+      <c r="X30" t="str">
+        <f t="shared" si="12"/>
+        <v>"POST TREBLE FREQ",</v>
+      </c>
+      <c r="Y30" t="str">
+        <f t="shared" si="13"/>
+        <v>"POST TREBLE FREQ",</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31" t="s">
+        <v>93</v>
+      </c>
+      <c r="J31" t="s">
+        <v>93</v>
+      </c>
+      <c r="K31" t="s">
+        <v>93</v>
+      </c>
+      <c r="L31" t="s">
+        <v>93</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="2"/>
+        <v>"POST TREBLE BW",</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="3"/>
+        <v>"POST TREBLE BW",</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="4"/>
+        <v>"POST TREBLE BW",</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="5"/>
+        <v>"POST TREBLE BW",</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="6"/>
+        <v>"POST TREBLE BW",</v>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" si="7"/>
+        <v>"POST TREBLE BW",</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="8"/>
+        <v>"POST TREBLE BW",</v>
+      </c>
+      <c r="U31" t="str">
+        <f t="shared" si="9"/>
+        <v>"POST TREBLE BW",</v>
+      </c>
+      <c r="V31" t="str">
+        <f t="shared" si="10"/>
+        <v>"POST TREBLE BW",</v>
+      </c>
+      <c r="W31" t="str">
+        <f t="shared" si="11"/>
+        <v>"POST TREBLE BW",</v>
+      </c>
+      <c r="X31" t="str">
+        <f t="shared" si="12"/>
+        <v>"POST TREBLE BW",</v>
+      </c>
+      <c r="Y31" t="str">
+        <f t="shared" si="13"/>
+        <v>"POST TREBLE BW",</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" t="s">
+        <v>94</v>
+      </c>
+      <c r="J32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32" t="s">
+        <v>94</v>
+      </c>
+      <c r="L32" t="s">
+        <v>94</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="2"/>
+        <v>"POST PRESENCE FREQ",</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="3"/>
+        <v>"POST PRESENCE FREQ",</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="4"/>
+        <v>"POST PRESENCE FREQ",</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="5"/>
+        <v>"POST PRESENCE FREQ",</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" si="6"/>
+        <v>"POST PRESENCE FREQ",</v>
+      </c>
+      <c r="S32" t="str">
+        <f t="shared" si="7"/>
+        <v>"POST PRESENCE FREQ",</v>
+      </c>
+      <c r="T32" t="str">
+        <f t="shared" si="8"/>
+        <v>"POST PRESENCE FREQ",</v>
+      </c>
+      <c r="U32" t="str">
+        <f t="shared" si="9"/>
+        <v>"POST PRESENCE FREQ",</v>
+      </c>
+      <c r="V32" t="str">
+        <f t="shared" si="10"/>
+        <v>"POST PRESENCE FREQ",</v>
+      </c>
+      <c r="W32" t="str">
+        <f t="shared" si="11"/>
+        <v>"POST PRESENCE FREQ",</v>
+      </c>
+      <c r="X32" t="str">
+        <f t="shared" si="12"/>
+        <v>"POST PRESENCE FREQ",</v>
+      </c>
+      <c r="Y32" t="str">
+        <f t="shared" si="13"/>
+        <v>"POST PRESENCE FREQ",</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" t="s">
+        <v>95</v>
+      </c>
+      <c r="I33" t="s">
+        <v>95</v>
+      </c>
+      <c r="J33" t="s">
+        <v>95</v>
+      </c>
+      <c r="K33" t="s">
+        <v>95</v>
+      </c>
+      <c r="L33" t="s">
+        <v>95</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="2"/>
+        <v>"POST PRESENCE BW",</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="3"/>
+        <v>"POST PRESENCE BW",</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="4"/>
+        <v>"POST PRESENCE BW",</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="5"/>
+        <v>"POST PRESENCE BW",</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" si="6"/>
+        <v>"POST PRESENCE BW",</v>
+      </c>
+      <c r="S33" t="str">
+        <f t="shared" si="7"/>
+        <v>"POST PRESENCE BW",</v>
+      </c>
+      <c r="T33" t="str">
+        <f t="shared" si="8"/>
+        <v>"POST PRESENCE BW",</v>
+      </c>
+      <c r="U33" t="str">
+        <f t="shared" si="9"/>
+        <v>"POST PRESENCE BW",</v>
+      </c>
+      <c r="V33" t="str">
+        <f t="shared" si="10"/>
+        <v>"POST PRESENCE BW",</v>
+      </c>
+      <c r="W33" t="str">
+        <f t="shared" si="11"/>
+        <v>"POST PRESENCE BW",</v>
+      </c>
+      <c r="X33" t="str">
+        <f t="shared" si="12"/>
+        <v>"POST PRESENCE BW",</v>
+      </c>
+      <c r="Y33" t="str">
+        <f t="shared" si="13"/>
+        <v>"POST PRESENCE BW",</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" t="s">
+        <v>9</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="2"/>
+        <v>"SPKR SIM",</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="3"/>
+        <v>"SPKR SIM",</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="4"/>
+        <v>"SPKR SIM",</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="5"/>
+        <v>"SPKR SIM",</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="6"/>
+        <v>"SPKR SIM",</v>
+      </c>
+      <c r="S34" t="str">
+        <f t="shared" si="7"/>
+        <v>"SPKR SIM",</v>
+      </c>
+      <c r="T34" t="str">
+        <f t="shared" si="8"/>
+        <v>"SPKR SIM",</v>
+      </c>
+      <c r="U34" t="str">
+        <f t="shared" si="9"/>
+        <v>"SPKR SIM",</v>
+      </c>
+      <c r="V34" t="str">
+        <f t="shared" si="10"/>
+        <v>"SPKR SIM",</v>
+      </c>
+      <c r="W34" t="str">
+        <f t="shared" si="11"/>
+        <v>"SPKR SIM",</v>
+      </c>
+      <c r="X34" t="str">
+        <f t="shared" si="12"/>
+        <v>"SPKR SIM",</v>
+      </c>
+      <c r="Y34" t="str">
+        <f t="shared" si="13"/>
+        <v>"SPKR SIM",</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="2"/>
+        <v>"SPKR TYPE",</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="3"/>
+        <v>"SPKR TYPE",</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="4"/>
+        <v>"SPKR TYPE",</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="5"/>
+        <v>"SPKR TYPE",</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" si="6"/>
+        <v>"SPKR TYPE",</v>
+      </c>
+      <c r="S35" t="str">
+        <f t="shared" si="7"/>
+        <v>"SPKR TYPE",</v>
+      </c>
+      <c r="T35" t="str">
+        <f t="shared" si="8"/>
+        <v>"SPKR TYPE",</v>
+      </c>
+      <c r="U35" t="str">
+        <f t="shared" si="9"/>
+        <v>"SPKR TYPE",</v>
+      </c>
+      <c r="V35" t="str">
+        <f t="shared" si="10"/>
+        <v>"SPKR TYPE",</v>
+      </c>
+      <c r="W35" t="str">
+        <f t="shared" si="11"/>
+        <v>"SPKR TYPE",</v>
+      </c>
+      <c r="X35" t="str">
+        <f t="shared" si="12"/>
+        <v>"SPKR TYPE",</v>
+      </c>
+      <c r="Y35" t="str">
+        <f t="shared" si="13"/>
+        <v>"SPKR TYPE",</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L36" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="2"/>
+        <v>"MIC POSITION",</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="3"/>
+        <v>"MIC POSITION",</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="4"/>
+        <v>"MIC POSITION",</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="5"/>
+        <v>"MIC POSITION",</v>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" si="6"/>
+        <v>"MIC POSITION",</v>
+      </c>
+      <c r="S36" t="str">
+        <f t="shared" si="7"/>
+        <v>"MIC POSITION",</v>
+      </c>
+      <c r="T36" t="str">
+        <f t="shared" si="8"/>
+        <v>"MIC POSITION",</v>
+      </c>
+      <c r="U36" t="str">
+        <f t="shared" si="9"/>
+        <v>"MIC POSITION",</v>
+      </c>
+      <c r="V36" t="str">
+        <f t="shared" si="10"/>
+        <v>"MIC POSITION",</v>
+      </c>
+      <c r="W36" t="str">
+        <f t="shared" si="11"/>
+        <v>"MIC POSITION",</v>
+      </c>
+      <c r="X36" t="str">
+        <f t="shared" si="12"/>
+        <v>"MIC POSITION",</v>
+      </c>
+      <c r="Y36" t="str">
+        <f t="shared" si="13"/>
+        <v>"MIC POSITION",</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" t="s">
+        <v>31</v>
+      </c>
+      <c r="K37" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" t="s">
+        <v>31</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="2"/>
+        <v>"REACTANCE",</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="3"/>
+        <v>"REACTANCE",</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="4"/>
+        <v>"REACTANCE",</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="5"/>
+        <v>"REACTANCE",</v>
+      </c>
+      <c r="R37" t="str">
+        <f t="shared" si="6"/>
+        <v>"REACTANCE",</v>
+      </c>
+      <c r="S37" t="str">
+        <f t="shared" si="7"/>
+        <v>"REACTANCE",</v>
+      </c>
+      <c r="T37" t="str">
+        <f t="shared" si="8"/>
+        <v>"REACTANCE",</v>
+      </c>
+      <c r="U37" t="str">
+        <f t="shared" si="9"/>
+        <v>"REACTANCE",</v>
+      </c>
+      <c r="V37" t="str">
+        <f t="shared" si="10"/>
+        <v>"REACTANCE",</v>
+      </c>
+      <c r="W37" t="str">
+        <f t="shared" si="11"/>
+        <v>"REACTANCE",</v>
+      </c>
+      <c r="X37" t="str">
+        <f t="shared" si="12"/>
+        <v>"REACTANCE",</v>
+      </c>
+      <c r="Y37" t="str">
+        <f t="shared" si="13"/>
+        <v>"REACTANCE",</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" t="s">
+        <v>129</v>
+      </c>
+      <c r="H38" t="s">
+        <v>129</v>
+      </c>
+      <c r="I38" t="s">
+        <v>129</v>
+      </c>
+      <c r="J38" t="s">
+        <v>129</v>
+      </c>
+      <c r="K38" t="s">
+        <v>129</v>
+      </c>
+      <c r="L38" t="s">
+        <v>129</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="2"/>
+        <v>"CHORUS I/O",</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="3"/>
+        <v>"FLANGE I/O",</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="4"/>
+        <v>"TREMOLO I/O",</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="5"/>
+        <v>"PITCH SHIFT I/O",</v>
+      </c>
+      <c r="R38" t="str">
+        <f t="shared" si="6"/>
+        <v>"WAH-WAH I/O",</v>
+      </c>
+      <c r="S38" t="str">
+        <f t="shared" si="7"/>
+        <v>"PHASER I/O",</v>
+      </c>
+      <c r="T38" t="str">
+        <f t="shared" si="8"/>
+        <v>"COMPRESSOR I/O",</v>
+      </c>
+      <c r="U38" t="str">
+        <f t="shared" si="9"/>
+        <v>"COMPRESSOR I/O",</v>
+      </c>
+      <c r="V38" t="str">
+        <f t="shared" si="10"/>
+        <v>"COMPRESSOR I/O",</v>
+      </c>
+      <c r="W38" t="str">
+        <f t="shared" si="11"/>
+        <v>"COMPRESSOR I/O",</v>
+      </c>
+      <c r="X38" t="str">
+        <f t="shared" si="12"/>
+        <v>"COMPRESSOR I/O",</v>
+      </c>
+      <c r="Y38" t="str">
+        <f t="shared" si="13"/>
+        <v>"COMPRESSOR I/O",</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" t="s">
+        <v>26</v>
+      </c>
+      <c r="J39" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="2"/>
+        <v>"LEVEL 1",</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="3"/>
+        <v>"LEVEL 1",</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="4"/>
+        <v>"LOCATION",</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="5"/>
+        <v>"LEVEL",</v>
+      </c>
+      <c r="R39" t="str">
+        <f t="shared" si="6"/>
+        <v>"WAH FREQ",</v>
+      </c>
+      <c r="S39" t="str">
+        <f t="shared" si="7"/>
+        <v>"DEPTH",</v>
+      </c>
+      <c r="T39" t="str">
+        <f t="shared" si="8"/>
+        <v>"COMP THRESH",</v>
+      </c>
+      <c r="U39" t="str">
+        <f t="shared" si="9"/>
+        <v>"COMP THRESH",</v>
+      </c>
+      <c r="V39" t="str">
+        <f t="shared" si="10"/>
+        <v>"COMP THRESH",</v>
+      </c>
+      <c r="W39" t="str">
+        <f t="shared" si="11"/>
+        <v>"COMP THRESH",</v>
+      </c>
+      <c r="X39" t="str">
+        <f t="shared" si="12"/>
+        <v>"COMP THRESH",</v>
+      </c>
+      <c r="Y39" t="str">
+        <f t="shared" si="13"/>
+        <v>"COMP THRESH",</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="2"/>
+        <v>"PAN 1",</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="3"/>
+        <v>"PAN 1",</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="4"/>
+        <v>"DEPTH",</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="5"/>
+        <v>"PAN",</v>
+      </c>
+      <c r="R40" t="str">
+        <f t="shared" si="6"/>
+        <v>"DELAY",</v>
+      </c>
+      <c r="S40" t="str">
+        <f t="shared" si="7"/>
+        <v>"RATE",</v>
+      </c>
+      <c r="T40" t="str">
+        <f t="shared" si="8"/>
+        <v>"COMP ATTACK",</v>
+      </c>
+      <c r="U40" t="str">
+        <f t="shared" si="9"/>
+        <v>"COMP ATTACK",</v>
+      </c>
+      <c r="V40" t="str">
+        <f t="shared" si="10"/>
+        <v>"COMP ATTACK",</v>
+      </c>
+      <c r="W40" t="str">
+        <f t="shared" si="11"/>
+        <v>"COMP ATTACK",</v>
+      </c>
+      <c r="X40" t="str">
+        <f t="shared" si="12"/>
+        <v>"COMP ATTACK",</v>
+      </c>
+      <c r="Y40" t="str">
+        <f t="shared" si="13"/>
+        <v>"COMP ATTACK",</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" t="s">
+        <v>28</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="2"/>
+        <v>"DEPTH 1",</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="3"/>
+        <v>"DEPTH 1",</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="4"/>
+        <v>"RATE",</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="5"/>
+        <v>"PITCH",</v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" si="6"/>
+        <v>"MUTE TYPE",</v>
+      </c>
+      <c r="S41" t="str">
+        <f t="shared" si="7"/>
+        <v>"RESONANCE",</v>
+      </c>
+      <c r="T41" t="str">
+        <f t="shared" si="8"/>
+        <v>"COMP RELEASE",</v>
+      </c>
+      <c r="U41" t="str">
+        <f t="shared" si="9"/>
+        <v>"COMP RELEASE",</v>
+      </c>
+      <c r="V41" t="str">
+        <f t="shared" si="10"/>
+        <v>"COMP RELEASE",</v>
+      </c>
+      <c r="W41" t="str">
+        <f t="shared" si="11"/>
+        <v>"COMP RELEASE",</v>
+      </c>
+      <c r="X41" t="str">
+        <f t="shared" si="12"/>
+        <v>"COMP RELEASE",</v>
+      </c>
+      <c r="Y41" t="str">
+        <f t="shared" si="13"/>
+        <v>"COMP RELEASE",</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" t="s">
+        <v>51</v>
+      </c>
+      <c r="J42" t="s">
+        <v>55</v>
+      </c>
+      <c r="K42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" t="s">
+        <v>34</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="2"/>
+        <v>"RATE 1",</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="3"/>
+        <v>"RATE 1",</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="4"/>
+        <v>"SHAPE",</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="5"/>
+        <v>"FINE",</v>
+      </c>
+      <c r="R42" t="str">
+        <f t="shared" si="6"/>
+        <v>"SOURCE MIX",</v>
+      </c>
+      <c r="S42" t="str">
+        <f t="shared" si="7"/>
+        <v>"STAGES",</v>
+      </c>
+      <c r="T42" t="str">
+        <f t="shared" si="8"/>
+        <v>"CHORUS I/O",</v>
+      </c>
+      <c r="U42" t="str">
+        <f t="shared" si="9"/>
+        <v>"FLANGE I/O",</v>
+      </c>
+      <c r="V42" t="str">
+        <f t="shared" si="10"/>
+        <v>"TREMOLO I/O",</v>
+      </c>
+      <c r="W42" t="str">
+        <f t="shared" si="11"/>
+        <v>"PITCH SHIFT I/O",</v>
+      </c>
+      <c r="X42" t="str">
+        <f t="shared" si="12"/>
+        <v>"WAH-WAH I/O",</v>
+      </c>
+      <c r="Y42" t="str">
+        <f t="shared" si="13"/>
+        <v>"PHASER I/O",</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" t="s">
+        <v>40</v>
+      </c>
+      <c r="I43" t="s">
+        <v>60</v>
+      </c>
+      <c r="J43" t="s">
+        <v>52</v>
+      </c>
+      <c r="K43" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" t="s">
+        <v>35</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="2"/>
+        <v>"DELAY 1",</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="3"/>
+        <v>"LEVEL 2",</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="4"/>
+        <v>"DELAY",</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="5"/>
+        <v>"SPEED",</v>
+      </c>
+      <c r="R43" t="str">
+        <f t="shared" si="6"/>
+        <v>"SOURCE 2",</v>
+      </c>
+      <c r="S43" t="str">
+        <f t="shared" si="7"/>
+        <v>"DELAY",</v>
+      </c>
+      <c r="T43" t="str">
+        <f t="shared" si="8"/>
+        <v>"LEVEL 1",</v>
+      </c>
+      <c r="U43" t="str">
+        <f t="shared" si="9"/>
+        <v>"LEVEL 1",</v>
+      </c>
+      <c r="V43" t="str">
+        <f t="shared" si="10"/>
+        <v>"LOCATION",</v>
+      </c>
+      <c r="W43" t="str">
+        <f t="shared" si="11"/>
+        <v>"LEVEL",</v>
+      </c>
+      <c r="X43" t="str">
+        <f t="shared" si="12"/>
+        <v>"WAH FREQ",</v>
+      </c>
+      <c r="Y43" t="str">
+        <f t="shared" si="13"/>
+        <v>"DEPTH",</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" t="s">
+        <v>35</v>
+      </c>
+      <c r="J44" t="s">
+        <v>53</v>
+      </c>
+      <c r="K44" t="s">
+        <v>61</v>
+      </c>
+      <c r="L44" t="s">
+        <v>36</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="2"/>
+        <v>"LEVEL 2",</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="3"/>
+        <v>"PAN 2",</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="4"/>
+        <v>"MUTE TYPE",</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="5"/>
+        <v>"DELAY",</v>
+      </c>
+      <c r="R44" t="str">
+        <f t="shared" si="6"/>
+        <v>"DLY HF DAMP",</v>
+      </c>
+      <c r="S44" t="str">
+        <f t="shared" si="7"/>
+        <v>"MUTE TYPE",</v>
+      </c>
+      <c r="T44" t="str">
+        <f t="shared" si="8"/>
+        <v>"PAN 1",</v>
+      </c>
+      <c r="U44" t="str">
+        <f t="shared" si="9"/>
+        <v>"PAN 1",</v>
+      </c>
+      <c r="V44" t="str">
+        <f t="shared" si="10"/>
+        <v>"DEPTH",</v>
+      </c>
+      <c r="W44" t="str">
+        <f t="shared" si="11"/>
+        <v>"PAN",</v>
+      </c>
+      <c r="X44" t="str">
+        <f t="shared" si="12"/>
+        <v>"DELAY",</v>
+      </c>
+      <c r="Y44" t="str">
+        <f t="shared" si="13"/>
+        <v>"RATE",</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45" t="s">
+        <v>36</v>
+      </c>
+      <c r="J45" t="s">
+        <v>56</v>
+      </c>
+      <c r="K45" t="s">
+        <v>62</v>
+      </c>
+      <c r="L45" t="s">
+        <v>37</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="2"/>
+        <v>"PAN 2",</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="3"/>
+        <v>"DEPTH 2",</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="4"/>
+        <v>"SOURCE MIX",</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="5"/>
+        <v>"MUTE TYPE",</v>
+      </c>
+      <c r="R45" t="str">
+        <f t="shared" si="6"/>
+        <v>"OUT LVL 1",</v>
+      </c>
+      <c r="S45" t="str">
+        <f t="shared" si="7"/>
+        <v>"SOURCE MIX",</v>
+      </c>
+      <c r="T45" t="str">
+        <f t="shared" si="8"/>
+        <v>"DEPTH 1",</v>
+      </c>
+      <c r="U45" t="str">
+        <f t="shared" si="9"/>
+        <v>"DEPTH 1",</v>
+      </c>
+      <c r="V45" t="str">
+        <f t="shared" si="10"/>
+        <v>"RATE",</v>
+      </c>
+      <c r="W45" t="str">
+        <f t="shared" si="11"/>
+        <v>"PITCH",</v>
+      </c>
+      <c r="X45" t="str">
+        <f t="shared" si="12"/>
+        <v>"MUTE TYPE",</v>
+      </c>
+      <c r="Y45" t="str">
+        <f t="shared" si="13"/>
+        <v>"RESONANCE",</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" t="s">
+        <v>66</v>
+      </c>
+      <c r="G46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" t="s">
+        <v>54</v>
+      </c>
+      <c r="J46" t="s">
+        <v>57</v>
+      </c>
+      <c r="K46" t="s">
+        <v>65</v>
+      </c>
+      <c r="L46" t="s">
+        <v>38</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="2"/>
+        <v>"DEPTH 2",</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="3"/>
+        <v>"RATE 2",</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="4"/>
+        <v>"SOURCE 2",</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="5"/>
+        <v>"SOURCE MIX",</v>
+      </c>
+      <c r="R46" t="str">
+        <f t="shared" si="6"/>
+        <v>"PAN 1",</v>
+      </c>
+      <c r="S46" t="str">
+        <f t="shared" si="7"/>
+        <v>"SOURCE 2",</v>
+      </c>
+      <c r="T46" t="str">
+        <f t="shared" si="8"/>
+        <v>"RATE 1",</v>
+      </c>
+      <c r="U46" t="str">
+        <f t="shared" si="9"/>
+        <v>"RATE 1",</v>
+      </c>
+      <c r="V46" t="str">
+        <f t="shared" si="10"/>
+        <v>"SHAPE",</v>
+      </c>
+      <c r="W46" t="str">
+        <f t="shared" si="11"/>
+        <v>"FINE",</v>
+      </c>
+      <c r="X46" t="str">
+        <f t="shared" si="12"/>
+        <v>"SOURCE MIX",</v>
+      </c>
+      <c r="Y46" t="str">
+        <f t="shared" si="13"/>
+        <v>"STAGES",</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" t="s">
+        <v>44</v>
+      </c>
+      <c r="H47" t="s">
+        <v>45</v>
+      </c>
+      <c r="I47" t="s">
+        <v>61</v>
+      </c>
+      <c r="J47" t="s">
+        <v>58</v>
+      </c>
+      <c r="K47" t="s">
+        <v>66</v>
+      </c>
+      <c r="L47" t="s">
+        <v>61</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="2"/>
+        <v>"RATE 2",</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="3"/>
+        <v>"REGEN",</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="4"/>
+        <v>"DLY HF DAMP",</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="5"/>
+        <v>"SOURCE 2",</v>
+      </c>
+      <c r="R47" t="str">
+        <f t="shared" si="6"/>
+        <v>"DLY TIME 1",</v>
+      </c>
+      <c r="S47" t="str">
+        <f t="shared" si="7"/>
+        <v>"DLY HF DAMP",</v>
+      </c>
+      <c r="T47" t="str">
+        <f t="shared" si="8"/>
+        <v>"DELAY 1",</v>
+      </c>
+      <c r="U47" t="str">
+        <f t="shared" si="9"/>
+        <v>"LEVEL 2",</v>
+      </c>
+      <c r="V47" t="str">
+        <f t="shared" si="10"/>
+        <v>"DELAY",</v>
+      </c>
+      <c r="W47" t="str">
+        <f t="shared" si="11"/>
+        <v>"SPEED",</v>
+      </c>
+      <c r="X47" t="str">
+        <f t="shared" si="12"/>
+        <v>"SOURCE 2",</v>
+      </c>
+      <c r="Y47" t="str">
+        <f t="shared" si="13"/>
+        <v>"DELAY",</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>62</v>
+      </c>
+      <c r="J48" t="s">
+        <v>61</v>
+      </c>
+      <c r="K48" t="s">
+        <v>63</v>
+      </c>
+      <c r="L48" t="s">
+        <v>62</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="2"/>
+        <v>"DELAY 2",</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="3"/>
+        <v>"DELAY",</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="4"/>
+        <v>"OUT LVL 1",</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="5"/>
+        <v>"DLY HF DAMP",</v>
+      </c>
+      <c r="R48" t="str">
+        <f t="shared" si="6"/>
+        <v>"REGEN 1",</v>
+      </c>
+      <c r="S48" t="str">
+        <f t="shared" si="7"/>
+        <v>"OUT LVL 1",</v>
+      </c>
+      <c r="T48" t="str">
+        <f t="shared" si="8"/>
+        <v>"LEVEL 2",</v>
+      </c>
+      <c r="U48" t="str">
+        <f t="shared" si="9"/>
+        <v>"PAN 2",</v>
+      </c>
+      <c r="V48" t="str">
+        <f t="shared" si="10"/>
+        <v>"MUTE TYPE",</v>
+      </c>
+      <c r="W48" t="str">
+        <f t="shared" si="11"/>
+        <v>"DELAY",</v>
+      </c>
+      <c r="X48" t="str">
+        <f t="shared" si="12"/>
+        <v>"DLY HF DAMP",</v>
+      </c>
+      <c r="Y48" t="str">
+        <f t="shared" si="13"/>
+        <v>"MUTE TYPE",</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>65</v>
+      </c>
+      <c r="J49" t="s">
+        <v>62</v>
+      </c>
+      <c r="K49" t="s">
+        <v>67</v>
+      </c>
+      <c r="L49" t="s">
+        <v>65</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="2"/>
+        <v>"DELAY",</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="3"/>
+        <v>"MUTE TYPE",</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="4"/>
+        <v>"PAN 1",</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" si="5"/>
+        <v>"OUT LVL 1",</v>
+      </c>
+      <c r="R49" t="str">
+        <f t="shared" si="6"/>
+        <v>"OUT LVL 2",</v>
+      </c>
+      <c r="S49" t="str">
+        <f t="shared" si="7"/>
+        <v>"PAN 1",</v>
+      </c>
+      <c r="T49" t="str">
+        <f t="shared" si="8"/>
+        <v>"PAN 2",</v>
+      </c>
+      <c r="U49" t="str">
+        <f t="shared" si="9"/>
+        <v>"DEPTH 2",</v>
+      </c>
+      <c r="V49" t="str">
+        <f t="shared" si="10"/>
+        <v>"SOURCE MIX",</v>
+      </c>
+      <c r="W49" t="str">
+        <f t="shared" si="11"/>
+        <v>"MUTE TYPE",</v>
+      </c>
+      <c r="X49" t="str">
+        <f t="shared" si="12"/>
+        <v>"OUT LVL 1",</v>
+      </c>
+      <c r="Y49" t="str">
+        <f t="shared" si="13"/>
+        <v>"SOURCE MIX",</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" t="s">
+        <v>69</v>
+      </c>
+      <c r="G50" t="s">
+        <v>47</v>
+      </c>
+      <c r="H50" t="s">
+        <v>48</v>
+      </c>
+      <c r="I50" t="s">
+        <v>66</v>
+      </c>
+      <c r="J50" t="s">
+        <v>65</v>
+      </c>
+      <c r="K50" t="s">
+        <v>41</v>
+      </c>
+      <c r="L50" t="s">
+        <v>66</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="2"/>
+        <v>"MUTE TYPE",</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="3"/>
+        <v>"SOURCE MIX",</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="4"/>
+        <v>"DLY TIME 1",</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="5"/>
+        <v>"PAN 1",</v>
+      </c>
+      <c r="R50" t="str">
+        <f t="shared" si="6"/>
+        <v>"PAN 2",</v>
+      </c>
+      <c r="S50" t="str">
+        <f t="shared" si="7"/>
+        <v>"DLY TIME 1",</v>
+      </c>
+      <c r="T50" t="str">
+        <f t="shared" si="8"/>
+        <v>"DEPTH 2",</v>
+      </c>
+      <c r="U50" t="str">
+        <f t="shared" si="9"/>
+        <v>"RATE 2",</v>
+      </c>
+      <c r="V50" t="str">
+        <f t="shared" si="10"/>
+        <v>"SOURCE 2",</v>
+      </c>
+      <c r="W50" t="str">
+        <f t="shared" si="11"/>
+        <v>"SOURCE MIX",</v>
+      </c>
+      <c r="X50" t="str">
+        <f t="shared" si="12"/>
+        <v>"PAN 1",</v>
+      </c>
+      <c r="Y50" t="str">
+        <f t="shared" si="13"/>
+        <v>"SOURCE 2",</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" t="s">
+        <v>48</v>
+      </c>
+      <c r="H51" t="s">
+        <v>123</v>
+      </c>
+      <c r="I51" t="s">
+        <v>63</v>
+      </c>
+      <c r="J51" t="s">
+        <v>66</v>
+      </c>
+      <c r="K51" t="s">
+        <v>69</v>
+      </c>
+      <c r="L51" t="s">
+        <v>63</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="2"/>
+        <v>"SOURCE MIX",</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="3"/>
+        <v>"SOURCE 2",</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="4"/>
+        <v>"REGEN 1",</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="5"/>
+        <v>"DLY TIME 1",</v>
+      </c>
+      <c r="R51" t="str">
+        <f t="shared" si="6"/>
+        <v>"DLY TIME 2",</v>
+      </c>
+      <c r="S51" t="str">
+        <f t="shared" si="7"/>
+        <v>"REGEN 1",</v>
+      </c>
+      <c r="T51" t="str">
+        <f t="shared" si="8"/>
+        <v>"RATE 2",</v>
+      </c>
+      <c r="U51" t="str">
+        <f t="shared" si="9"/>
+        <v>"REGEN",</v>
+      </c>
+      <c r="V51" t="str">
+        <f t="shared" si="10"/>
+        <v>"DLY HF DAMP",</v>
+      </c>
+      <c r="W51" t="str">
+        <f t="shared" si="11"/>
+        <v>"SOURCE 2",</v>
+      </c>
+      <c r="X51" t="str">
+        <f t="shared" si="12"/>
+        <v>"DLY TIME 1",</v>
+      </c>
+      <c r="Y51" t="str">
+        <f t="shared" si="13"/>
+        <v>"DLY HF DAMP",</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" t="s">
+        <v>71</v>
+      </c>
+      <c r="G52" t="s">
+        <v>49</v>
+      </c>
+      <c r="H52" t="s">
+        <v>61</v>
+      </c>
+      <c r="I52" t="s">
+        <v>67</v>
+      </c>
+      <c r="J52" t="s">
+        <v>63</v>
+      </c>
+      <c r="K52" t="s">
+        <v>70</v>
+      </c>
+      <c r="L52" t="s">
+        <v>67</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="2"/>
+        <v>"SOURCE 2",</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="3"/>
+        <v>"DLY HF DAMP",</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="4"/>
+        <v>"OUT LVL 2",</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="5"/>
+        <v>"REGEN 1",</v>
+      </c>
+      <c r="R52" t="str">
+        <f t="shared" si="6"/>
+        <v>"REGEN 2",</v>
+      </c>
+      <c r="S52" t="str">
+        <f t="shared" si="7"/>
+        <v>"OUT LVL 2",</v>
+      </c>
+      <c r="T52" t="str">
+        <f t="shared" si="8"/>
+        <v>"DELAY 2",</v>
+      </c>
+      <c r="U52" t="str">
+        <f t="shared" si="9"/>
+        <v>"DELAY",</v>
+      </c>
+      <c r="V52" t="str">
+        <f t="shared" si="10"/>
+        <v>"OUT LVL 1",</v>
+      </c>
+      <c r="W52" t="str">
+        <f t="shared" si="11"/>
+        <v>"DLY HF DAMP",</v>
+      </c>
+      <c r="X52" t="str">
+        <f t="shared" si="12"/>
+        <v>"REGEN 1",</v>
+      </c>
+      <c r="Y52" t="str">
+        <f t="shared" si="13"/>
+        <v>"OUT LVL 1",</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G53" t="s">
+        <v>61</v>
+      </c>
+      <c r="H53" t="s">
+        <v>62</v>
+      </c>
+      <c r="I53" t="s">
+        <v>41</v>
+      </c>
+      <c r="J53" t="s">
+        <v>67</v>
+      </c>
+      <c r="K53" t="s">
+        <v>71</v>
+      </c>
+      <c r="L53" t="s">
+        <v>41</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="2"/>
+        <v>"DLY HF DAMP",</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="3"/>
+        <v>"OUT LVL 1",</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="4"/>
+        <v>"PAN 2",</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" si="5"/>
+        <v>"OUT LVL 2",</v>
+      </c>
+      <c r="R53" t="str">
+        <f t="shared" si="6"/>
+        <v>"REV INPUT",</v>
+      </c>
+      <c r="S53" t="str">
+        <f t="shared" si="7"/>
+        <v>"PAN 2",</v>
+      </c>
+      <c r="T53" t="str">
+        <f t="shared" si="8"/>
+        <v>"DELAY",</v>
+      </c>
+      <c r="U53" t="str">
+        <f t="shared" si="9"/>
+        <v>"MUTE TYPE",</v>
+      </c>
+      <c r="V53" t="str">
+        <f t="shared" si="10"/>
+        <v>"PAN 1",</v>
+      </c>
+      <c r="W53" t="str">
+        <f t="shared" si="11"/>
+        <v>"OUT LVL 1",</v>
+      </c>
+      <c r="X53" t="str">
+        <f t="shared" si="12"/>
+        <v>"OUT LVL 2",</v>
+      </c>
+      <c r="Y53" t="str">
+        <f t="shared" si="13"/>
+        <v>"PAN 1",</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" t="s">
+        <v>62</v>
+      </c>
+      <c r="H54" t="s">
+        <v>65</v>
+      </c>
+      <c r="I54" t="s">
+        <v>69</v>
+      </c>
+      <c r="J54" t="s">
+        <v>41</v>
+      </c>
+      <c r="K54" t="s">
+        <v>46</v>
+      </c>
+      <c r="L54" t="s">
+        <v>69</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="2"/>
+        <v>"OUT LVL 1",</v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="3"/>
+        <v>"PAN 1",</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="4"/>
+        <v>"DLY TIME 2",</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" si="5"/>
+        <v>"PAN 2",</v>
+      </c>
+      <c r="R54" t="str">
+        <f t="shared" si="6"/>
+        <v>"MIX DIR/DLY",</v>
+      </c>
+      <c r="S54" t="str">
+        <f t="shared" si="7"/>
+        <v>"DLY TIME 2",</v>
+      </c>
+      <c r="T54" t="str">
+        <f t="shared" si="8"/>
+        <v>"MUTE TYPE",</v>
+      </c>
+      <c r="U54" t="str">
+        <f t="shared" si="9"/>
+        <v>"SOURCE MIX",</v>
+      </c>
+      <c r="V54" t="str">
+        <f t="shared" si="10"/>
+        <v>"DLY TIME 1",</v>
+      </c>
+      <c r="W54" t="str">
+        <f t="shared" si="11"/>
+        <v>"PAN 1",</v>
+      </c>
+      <c r="X54" t="str">
+        <f t="shared" si="12"/>
+        <v>"PAN 2",</v>
+      </c>
+      <c r="Y54" t="str">
+        <f t="shared" si="13"/>
+        <v>"DLY TIME 1",</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" t="s">
+        <v>77</v>
+      </c>
+      <c r="F55" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H55" t="s">
+        <v>66</v>
+      </c>
+      <c r="I55" t="s">
+        <v>70</v>
+      </c>
+      <c r="J55" t="s">
+        <v>69</v>
+      </c>
+      <c r="K55" t="s">
+        <v>73</v>
+      </c>
+      <c r="L55" t="s">
+        <v>70</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="2"/>
+        <v>"PAN 1",</v>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" si="3"/>
+        <v>"DLY TIME 1",</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="4"/>
+        <v>"REGEN 2",</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" si="5"/>
+        <v>"DLY TIME 2",</v>
+      </c>
+      <c r="R55" t="str">
+        <f t="shared" si="6"/>
+        <v>"REV DECAY",</v>
+      </c>
+      <c r="S55" t="str">
+        <f t="shared" si="7"/>
+        <v>"REGEN 2",</v>
+      </c>
+      <c r="T55" t="str">
+        <f t="shared" si="8"/>
+        <v>"SOURCE MIX",</v>
+      </c>
+      <c r="U55" t="str">
+        <f t="shared" si="9"/>
+        <v>"SOURCE 2",</v>
+      </c>
+      <c r="V55" t="str">
+        <f t="shared" si="10"/>
+        <v>"REGEN 1",</v>
+      </c>
+      <c r="W55" t="str">
+        <f t="shared" si="11"/>
+        <v>"DLY TIME 1",</v>
+      </c>
+      <c r="X55" t="str">
+        <f t="shared" si="12"/>
+        <v>"DLY TIME 2",</v>
+      </c>
+      <c r="Y55" t="str">
+        <f t="shared" si="13"/>
+        <v>"REGEN 1",</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56" t="s">
+        <v>78</v>
+      </c>
+      <c r="F56" t="s">
+        <v>75</v>
+      </c>
+      <c r="G56" t="s">
+        <v>66</v>
+      </c>
+      <c r="H56" t="s">
+        <v>63</v>
+      </c>
+      <c r="I56" t="s">
+        <v>71</v>
+      </c>
+      <c r="J56" t="s">
+        <v>70</v>
+      </c>
+      <c r="K56" t="s">
+        <v>74</v>
+      </c>
+      <c r="L56" t="s">
+        <v>71</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="2"/>
+        <v>"DLY TIME 1",</v>
+      </c>
+      <c r="O56" t="str">
+        <f t="shared" si="3"/>
+        <v>"REGEN 1",</v>
+      </c>
+      <c r="P56" t="str">
+        <f t="shared" si="4"/>
+        <v>"REV INPUT",</v>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" si="5"/>
+        <v>"REGEN 2",</v>
+      </c>
+      <c r="R56" t="str">
+        <f t="shared" si="6"/>
+        <v>"REV HF DAMP",</v>
+      </c>
+      <c r="S56" t="str">
+        <f t="shared" si="7"/>
+        <v>"REV INPUT",</v>
+      </c>
+      <c r="T56" t="str">
+        <f t="shared" si="8"/>
+        <v>"SOURCE 2",</v>
+      </c>
+      <c r="U56" t="str">
+        <f t="shared" si="9"/>
+        <v>"DLY HF DAMP",</v>
+      </c>
+      <c r="V56" t="str">
+        <f t="shared" si="10"/>
+        <v>"OUT LVL 2",</v>
+      </c>
+      <c r="W56" t="str">
+        <f t="shared" si="11"/>
+        <v>"REGEN 1",</v>
+      </c>
+      <c r="X56" t="str">
+        <f t="shared" si="12"/>
+        <v>"REGEN 2",</v>
+      </c>
+      <c r="Y56" t="str">
+        <f t="shared" si="13"/>
+        <v>"OUT LVL 2",</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" t="s">
+        <v>76</v>
+      </c>
+      <c r="G57" t="s">
+        <v>63</v>
+      </c>
+      <c r="H57" t="s">
+        <v>67</v>
+      </c>
+      <c r="I57" t="s">
+        <v>46</v>
+      </c>
+      <c r="J57" t="s">
+        <v>71</v>
+      </c>
+      <c r="K57" t="s">
+        <v>75</v>
+      </c>
+      <c r="L57" t="s">
+        <v>46</v>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="2"/>
+        <v>"REGEN 1",</v>
+      </c>
+      <c r="O57" t="str">
+        <f t="shared" si="3"/>
+        <v>"OUT LVL 2",</v>
+      </c>
+      <c r="P57" t="str">
+        <f t="shared" si="4"/>
+        <v>"MIX DIR/DLY",</v>
+      </c>
+      <c r="Q57" t="str">
+        <f t="shared" si="5"/>
+        <v>"REV INPUT",</v>
+      </c>
+      <c r="R57" t="str">
+        <f t="shared" si="6"/>
+        <v>"BYPASS",</v>
+      </c>
+      <c r="S57" t="str">
+        <f t="shared" si="7"/>
+        <v>"MIX DIR/DLY",</v>
+      </c>
+      <c r="T57" t="str">
+        <f t="shared" si="8"/>
+        <v>"DLY HF DAMP",</v>
+      </c>
+      <c r="U57" t="str">
+        <f t="shared" si="9"/>
+        <v>"OUT LVL 1",</v>
+      </c>
+      <c r="V57" t="str">
+        <f t="shared" si="10"/>
+        <v>"PAN 2",</v>
+      </c>
+      <c r="W57" t="str">
+        <f t="shared" si="11"/>
+        <v>"OUT LVL 2",</v>
+      </c>
+      <c r="X57" t="str">
+        <f t="shared" si="12"/>
+        <v>"REV INPUT",</v>
+      </c>
+      <c r="Y57" t="str">
+        <f t="shared" si="13"/>
+        <v>"PAN 2",</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58" t="s">
+        <v>77</v>
+      </c>
+      <c r="G58" t="s">
+        <v>67</v>
+      </c>
+      <c r="H58" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J58" t="s">
+        <v>46</v>
+      </c>
+      <c r="K58" t="s">
+        <v>76</v>
+      </c>
+      <c r="L58" t="s">
+        <v>73</v>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" si="2"/>
+        <v>"OUT LVL 2",</v>
+      </c>
+      <c r="O58" t="str">
+        <f t="shared" si="3"/>
+        <v>"PAN 2",</v>
+      </c>
+      <c r="P58" t="str">
+        <f t="shared" si="4"/>
+        <v>"REV DECAY",</v>
+      </c>
+      <c r="Q58" t="str">
+        <f t="shared" si="5"/>
+        <v>"MIX DIR/DLY",</v>
+      </c>
+      <c r="S58" t="str">
+        <f t="shared" si="7"/>
+        <v>"REV DECAY",</v>
+      </c>
+      <c r="T58" t="str">
+        <f t="shared" si="8"/>
+        <v>"OUT LVL 1",</v>
+      </c>
+      <c r="U58" t="str">
+        <f t="shared" si="9"/>
+        <v>"PAN 1",</v>
+      </c>
+      <c r="V58" t="str">
+        <f t="shared" si="10"/>
+        <v>"DLY TIME 2",</v>
+      </c>
+      <c r="W58" t="str">
+        <f t="shared" si="11"/>
+        <v>"PAN 2",</v>
+      </c>
+      <c r="X58" t="str">
+        <f t="shared" si="12"/>
+        <v>"MIX DIR/DLY",</v>
+      </c>
+      <c r="Y58" t="str">
+        <f t="shared" si="13"/>
+        <v>"DLY TIME 2",</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" t="s">
+        <v>77</v>
+      </c>
+      <c r="F59" t="s">
+        <v>78</v>
+      </c>
+      <c r="G59" t="s">
+        <v>41</v>
+      </c>
+      <c r="H59" t="s">
+        <v>69</v>
+      </c>
+      <c r="I59" t="s">
+        <v>74</v>
+      </c>
+      <c r="J59" t="s">
+        <v>73</v>
+      </c>
+      <c r="K59" t="s">
+        <v>77</v>
+      </c>
+      <c r="L59" t="s">
+        <v>74</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="2"/>
+        <v>"PAN 2",</v>
+      </c>
+      <c r="O59" t="str">
+        <f t="shared" si="3"/>
+        <v>"DLY TIME 2",</v>
+      </c>
+      <c r="P59" t="str">
+        <f t="shared" si="4"/>
+        <v>"REV HF DAMP",</v>
+      </c>
+      <c r="Q59" t="str">
+        <f t="shared" si="5"/>
+        <v>"REV DECAY",</v>
+      </c>
+      <c r="S59" t="str">
+        <f t="shared" si="7"/>
+        <v>"REV HF DAMP",</v>
+      </c>
+      <c r="T59" t="str">
+        <f t="shared" si="8"/>
+        <v>"PAN 1",</v>
+      </c>
+      <c r="U59" t="str">
+        <f t="shared" si="9"/>
+        <v>"DLY TIME 1",</v>
+      </c>
+      <c r="V59" t="str">
+        <f t="shared" si="10"/>
+        <v>"REGEN 2",</v>
+      </c>
+      <c r="W59" t="str">
+        <f t="shared" si="11"/>
+        <v>"DLY TIME 2",</v>
+      </c>
+      <c r="X59" t="str">
+        <f t="shared" si="12"/>
+        <v>"REV DECAY",</v>
+      </c>
+      <c r="Y59" t="str">
+        <f t="shared" si="13"/>
+        <v>"REGEN 2",</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" t="s">
+        <v>78</v>
+      </c>
+      <c r="F60" t="s">
+        <v>79</v>
+      </c>
+      <c r="G60" t="s">
+        <v>69</v>
+      </c>
+      <c r="H60" t="s">
+        <v>70</v>
+      </c>
+      <c r="I60" t="s">
+        <v>75</v>
+      </c>
+      <c r="J60" t="s">
+        <v>74</v>
+      </c>
+      <c r="K60" t="s">
+        <v>78</v>
+      </c>
+      <c r="L60" t="s">
+        <v>75</v>
+      </c>
+      <c r="N60" t="str">
+        <f t="shared" si="2"/>
+        <v>"DLY TIME 2",</v>
+      </c>
+      <c r="O60" t="str">
+        <f t="shared" si="3"/>
+        <v>"REGEN 2",</v>
+      </c>
+      <c r="P60" t="str">
+        <f t="shared" si="4"/>
+        <v>"BYPASS",</v>
+      </c>
+      <c r="Q60" t="str">
+        <f t="shared" si="5"/>
+        <v>"REV HF DAMP",</v>
+      </c>
+      <c r="S60" t="str">
+        <f t="shared" si="7"/>
+        <v>"BYPASS",</v>
+      </c>
+      <c r="T60" t="str">
+        <f t="shared" si="8"/>
+        <v>"DLY TIME 1",</v>
+      </c>
+      <c r="U60" t="str">
+        <f t="shared" si="9"/>
+        <v>"REGEN 1",</v>
+      </c>
+      <c r="V60" t="str">
+        <f t="shared" si="10"/>
+        <v>"REV INPUT",</v>
+      </c>
+      <c r="W60" t="str">
+        <f t="shared" si="11"/>
+        <v>"REGEN 2",</v>
+      </c>
+      <c r="X60" t="str">
+        <f t="shared" si="12"/>
+        <v>"REV HF DAMP",</v>
+      </c>
+      <c r="Y60" t="str">
+        <f t="shared" si="13"/>
+        <v>"REV INPUT",</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" t="s">
+        <v>70</v>
+      </c>
+      <c r="H61" t="s">
+        <v>71</v>
+      </c>
+      <c r="I61" t="s">
+        <v>76</v>
+      </c>
+      <c r="J61" t="s">
+        <v>75</v>
+      </c>
+      <c r="K61" t="s">
+        <v>79</v>
+      </c>
+      <c r="L61" t="s">
+        <v>76</v>
+      </c>
+      <c r="N61" t="str">
+        <f t="shared" si="2"/>
+        <v>"REGEN 2",</v>
+      </c>
+      <c r="O61" t="str">
+        <f t="shared" si="3"/>
+        <v>"REV INPUT",</v>
+      </c>
+      <c r="Q61" t="str">
+        <f t="shared" si="5"/>
+        <v>"BYPASS",</v>
+      </c>
+      <c r="T61" t="str">
+        <f t="shared" si="8"/>
+        <v>"REGEN 1",</v>
+      </c>
+      <c r="U61" t="str">
+        <f t="shared" si="9"/>
+        <v>"OUT LVL 2",</v>
+      </c>
+      <c r="V61" t="str">
+        <f t="shared" si="10"/>
+        <v>"MIX DIR/DLY",</v>
+      </c>
+      <c r="W61" t="str">
+        <f t="shared" si="11"/>
+        <v>"REV INPUT",</v>
+      </c>
+      <c r="X61" t="str">
+        <f t="shared" si="12"/>
+        <v>"BYPASS",</v>
+      </c>
+      <c r="Y61" t="str">
+        <f t="shared" si="13"/>
+        <v>"MIX DIR/DLY",</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G62" t="s">
+        <v>71</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>77</v>
+      </c>
+      <c r="J62" t="s">
+        <v>76</v>
+      </c>
+      <c r="L62" t="s">
+        <v>77</v>
+      </c>
+      <c r="N62" t="str">
+        <f t="shared" si="2"/>
+        <v>"REV INPUT",</v>
+      </c>
+      <c r="O62" t="str">
+        <f t="shared" si="3"/>
+        <v>"MIX DIR/DLY",</v>
+      </c>
+      <c r="T62" t="str">
+        <f t="shared" si="8"/>
+        <v>"OUT LVL 2",</v>
+      </c>
+      <c r="U62" t="str">
+        <f t="shared" si="9"/>
+        <v>"PAN 2",</v>
+      </c>
+      <c r="V62" t="str">
+        <f t="shared" si="10"/>
+        <v>"REV DECAY",</v>
+      </c>
+      <c r="W62" t="str">
+        <f t="shared" si="11"/>
+        <v>"MIX DIR/DLY",</v>
+      </c>
+      <c r="Y62" t="str">
+        <f t="shared" si="13"/>
+        <v>"REV DECAY",</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>73</v>
+      </c>
+      <c r="I63" t="s">
+        <v>78</v>
+      </c>
+      <c r="J63" t="s">
+        <v>77</v>
+      </c>
+      <c r="L63" t="s">
+        <v>78</v>
+      </c>
+      <c r="N63" t="str">
+        <f t="shared" si="2"/>
+        <v>"MIX DIR/DLY",</v>
+      </c>
+      <c r="O63" t="str">
+        <f t="shared" si="3"/>
+        <v>"REV DECAY",</v>
+      </c>
+      <c r="T63" t="str">
+        <f t="shared" si="8"/>
+        <v>"PAN 2",</v>
+      </c>
+      <c r="U63" t="str">
+        <f t="shared" si="9"/>
+        <v>"DLY TIME 2",</v>
+      </c>
+      <c r="V63" t="str">
+        <f t="shared" si="10"/>
+        <v>"REV HF DAMP",</v>
+      </c>
+      <c r="W63" t="str">
+        <f t="shared" si="11"/>
+        <v>"REV DECAY",</v>
+      </c>
+      <c r="Y63" t="str">
+        <f t="shared" si="13"/>
+        <v>"REV HF DAMP",</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G64" t="s">
+        <v>73</v>
+      </c>
+      <c r="H64" t="s">
+        <v>74</v>
+      </c>
+      <c r="I64" t="s">
+        <v>79</v>
+      </c>
+      <c r="J64" t="s">
+        <v>78</v>
+      </c>
+      <c r="L64" t="s">
+        <v>79</v>
+      </c>
+      <c r="N64" t="str">
+        <f t="shared" si="2"/>
+        <v>"REV DECAY",</v>
+      </c>
+      <c r="O64" t="str">
+        <f t="shared" si="3"/>
+        <v>"REV HF DAMP",</v>
+      </c>
+      <c r="T64" t="str">
+        <f t="shared" si="8"/>
+        <v>"DLY TIME 2",</v>
+      </c>
+      <c r="U64" t="str">
+        <f t="shared" si="9"/>
+        <v>"REGEN 2",</v>
+      </c>
+      <c r="V64" t="str">
+        <f t="shared" si="10"/>
+        <v>"BYPASS",</v>
+      </c>
+      <c r="W64" t="str">
+        <f t="shared" si="11"/>
+        <v>"REV HF DAMP",</v>
+      </c>
+      <c r="Y64" t="str">
+        <f t="shared" si="13"/>
+        <v>"BYPASS",</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" t="s">
+        <v>79</v>
+      </c>
+      <c r="G65" t="s">
+        <v>74</v>
+      </c>
+      <c r="H65" t="s">
+        <v>75</v>
+      </c>
+      <c r="J65" t="s">
+        <v>79</v>
+      </c>
+      <c r="N65" t="str">
+        <f t="shared" si="2"/>
+        <v>"REV HF DAMP",</v>
+      </c>
+      <c r="O65" t="str">
+        <f t="shared" si="3"/>
+        <v>"BYPASS",</v>
+      </c>
+      <c r="T65" t="str">
+        <f t="shared" si="8"/>
+        <v>"REGEN 2",</v>
+      </c>
+      <c r="U65" t="str">
+        <f t="shared" si="9"/>
+        <v>"REV INPUT",</v>
+      </c>
+      <c r="W65" t="str">
+        <f t="shared" si="11"/>
+        <v>"BYPASS",</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="G66" t="s">
+        <v>75</v>
+      </c>
+      <c r="H66" t="s">
+        <v>76</v>
+      </c>
+      <c r="N66" t="str">
+        <f t="shared" si="2"/>
+        <v>"BYPASS",</v>
+      </c>
+      <c r="T66" t="str">
+        <f t="shared" si="8"/>
+        <v>"REV INPUT",</v>
+      </c>
+      <c r="U66" t="str">
+        <f t="shared" si="9"/>
+        <v>"MIX DIR/DLY",</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>76</v>
+      </c>
+      <c r="H67" t="s">
+        <v>77</v>
+      </c>
+      <c r="T67" t="str">
+        <f t="shared" si="8"/>
+        <v>"MIX DIR/DLY",</v>
+      </c>
+      <c r="U67" t="str">
+        <f t="shared" si="9"/>
+        <v>"REV DECAY",</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>77</v>
+      </c>
+      <c r="H68" t="s">
+        <v>78</v>
+      </c>
+      <c r="T68" t="str">
+        <f t="shared" si="8"/>
+        <v>"REV DECAY",</v>
+      </c>
+      <c r="U68" t="str">
+        <f t="shared" si="9"/>
+        <v>"REV HF DAMP",</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>